--- a/biology/Botanique/Couston/Couston.xlsx
+++ b/biology/Botanique/Couston/Couston.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le couston est un cépage français de raisins noirs[1].
+Le couston est un cépage français de raisins noirs.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage de cuve est issu d’un croisement récent entre Grenache et Aubun et inscrit au catalogue officiel depuis 2010.
 Un seul clone est agréé et porte le numéro 1129.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Feuilles adultes ressemblant à celles du Grenache
 Port retombant
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cépage est plus précoce que le Grenache noir. Ce cépage est très fertile (nombreuses grappes), mais ces grappes sont petites et lâches, avec de petites baies. Il est peu sensible à la pourriture grise.
 </t>
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Couston N conduit à l’élaboration d’un vin coloré avec une importante structure tannique.
 </t>
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Plant de Couston</t>
         </is>
